--- a/biology/Zoologie/Georg_Haas/Georg_Haas.xlsx
+++ b/biology/Zoologie/Georg_Haas/Georg_Haas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Haas est un herpétologiste et un paléontologue israélien d’origine autrichienne, né le 19 janvier 1905 à Vienne et mort le 13 septembre 1981 à Jérusalem.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie la zoologie et la paléontologie à l’université de Vienne où il suit les cours de Franz Werner (1867-1939), d'Otto von Wettstein Ritter von Westersheim (1892-1967) et de Jan Versluys (1873-1939). Il reçoit son doctorat en 1928 avec une thèse portant sur l’anatomie crânienne des serpents. Après un court passage à Berlin de 1931 à 1932, il émigre en Israël et entre à l’Université hébraïque de Jérusalem où il travaille jusqu’à son départ à la retraite en 1976.
 Outre ses recherches en anatomie, il s’intéresse sur la distribution et la taxinomie des reptiles et des amphibiens du Moyen-Orient et participe à plusieurs expéditions dans cette région. Ses travaux permettent de décrire plusieurs nouvelles espèces et de démêler certaines situations taxinomiques confuses. Au fil du temps, il s’intéresse de plus en plus à la paléontologie (dont les fouilles de la grotte de Tabun). 
@@ -544,7 +558,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Acanthodactylus haasi Leviton &amp; Anderson, 1967
 Sphenomorphus haasi Inger &amp; Hosmer, 1965</t>
@@ -575,7 +591,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Acanthodactylus hardyi (Haas, 1957)
